--- a/ManutencaoEquipamentos.xlsx
+++ b/ManutencaoEquipamentos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51931882819\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607F44A5-5958-403D-9433-29661EAD8BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674232B0-2D77-4203-B23A-8F679822F836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="16635" windowHeight="15585" xr2:uid="{9080414A-2930-4717-89BC-740E9C3548AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="67">
   <si>
     <t>Campo</t>
   </si>
@@ -80,9 +80,6 @@
     <t>TEXT</t>
   </si>
   <si>
-    <t xml:space="preserve">Não Nulo </t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -92,42 +89,6 @@
     <t>Identificador único de cada professor.</t>
   </si>
   <si>
-    <t>id_curso</t>
-  </si>
-  <si>
-    <t>Identificador único associado ao curso.</t>
-  </si>
-  <si>
-    <t>ConteudoCurso</t>
-  </si>
-  <si>
-    <t>id_conteudo_curso</t>
-  </si>
-  <si>
-    <t>Identificador único da associação conteudo-curso.</t>
-  </si>
-  <si>
-    <t>Titulo</t>
-  </si>
-  <si>
-    <t>Título do curso.</t>
-  </si>
-  <si>
-    <t>Ordem</t>
-  </si>
-  <si>
-    <t>Ordem do conteúdo do curso.</t>
-  </si>
-  <si>
-    <t>CargaHoraria</t>
-  </si>
-  <si>
-    <t>Não Nulo, Só aceita valores positivos</t>
-  </si>
-  <si>
-    <t>Carga horária do curso.</t>
-  </si>
-  <si>
     <t>Equipamento</t>
   </si>
   <si>
@@ -258,6 +219,24 @@
   </si>
   <si>
     <t>NomePeca</t>
+  </si>
+  <si>
+    <t>Nome da peça.</t>
+  </si>
+  <si>
+    <t>Fabricante</t>
+  </si>
+  <si>
+    <t>Fabricante da peça</t>
+  </si>
+  <si>
+    <t>PecasManutencao</t>
+  </si>
+  <si>
+    <t>Identificador único associado ao cadastro_pecas.</t>
+  </si>
+  <si>
+    <t>LaudoTecnico</t>
   </si>
 </sst>
 </file>
@@ -306,7 +285,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -481,11 +460,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFCC0099"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCC0099"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -579,6 +569,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BC0C3A-C9C8-4667-BB0D-B7F23E12032B}">
-  <dimension ref="D3:J50"/>
+  <dimension ref="D3:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -941,7 +940,7 @@
   <sheetData>
     <row r="3" spans="4:10" ht="30" customHeight="1">
       <c r="D3" s="27" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
@@ -975,7 +974,7 @@
     </row>
     <row r="5" spans="4:10" ht="28.5">
       <c r="D5" s="6" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>7</v>
@@ -991,7 +990,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="4:10">
@@ -1011,15 +1010,15 @@
         <v>9</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" s="23" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E7" s="23" t="s">
         <v>12</v>
@@ -1034,10 +1033,10 @@
         <v>9</v>
       </c>
       <c r="I7" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="26" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="4:10">
@@ -1051,7 +1050,7 @@
     </row>
     <row r="9" spans="4:10" ht="30" customHeight="1">
       <c r="D9" s="27" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -1085,7 +1084,7 @@
     </row>
     <row r="11" spans="4:10">
       <c r="D11" s="13" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>7</v>
@@ -1101,12 +1100,12 @@
         <v>10</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="9" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>12</v>
@@ -1121,18 +1120,18 @@
         <v>9</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6" t="s">
@@ -1142,15 +1141,15 @@
         <v>9</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>12</v>
@@ -1165,15 +1164,15 @@
         <v>9</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>12</v>
@@ -1189,15 +1188,15 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="7" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="30" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30" t="s">
@@ -1208,12 +1207,12 @@
       </c>
       <c r="I16" s="30"/>
       <c r="J16" s="30" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>12</v>
@@ -1228,15 +1227,15 @@
         <v>9</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="4:10" ht="28.5">
       <c r="D18" s="16" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>7</v>
@@ -1245,10 +1244,10 @@
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="4:10">
@@ -1262,7 +1261,7 @@
     </row>
     <row r="20" spans="4:10" ht="30" customHeight="1">
       <c r="D20" s="27" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
@@ -1296,7 +1295,7 @@
     </row>
     <row r="22" spans="4:10" ht="28.5">
       <c r="D22" s="13" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>7</v>
@@ -1309,15 +1308,15 @@
         <v>8</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="4:10" ht="28.5">
       <c r="D23" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>7</v>
@@ -1330,10 +1329,10 @@
         <v>8</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" s="20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="4:10">
@@ -1347,7 +1346,7 @@
     </row>
     <row r="25" spans="4:10" ht="30" customHeight="1">
       <c r="D25" s="27" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
@@ -1381,7 +1380,7 @@
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="13" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E27" s="13" t="s">
         <v>7</v>
@@ -1397,7 +1396,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="4:10">
@@ -1417,15 +1416,15 @@
         <v>9</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="4:10">
       <c r="D29" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>12</v>
@@ -1440,15 +1439,15 @@
         <v>9</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J29" s="11" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="4:10">
       <c r="D30" s="9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>13</v>
@@ -1462,7 +1461,7 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="4:10" ht="13.5" customHeight="1">
@@ -1476,7 +1475,7 @@
     </row>
     <row r="32" spans="4:10" ht="38.25" customHeight="1">
       <c r="D32" s="27" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E32" s="28"/>
       <c r="F32" s="28"/>
@@ -1510,7 +1509,7 @@
     </row>
     <row r="34" spans="4:10" ht="28.5">
       <c r="D34" s="13" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E34" s="13" t="s">
         <v>7</v>
@@ -1523,15 +1522,15 @@
         <v>8</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="4:10" ht="28.5">
       <c r="D35" s="9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>7</v>
@@ -1544,10 +1543,10 @@
         <v>8</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" s="20" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="4:10">
@@ -1561,7 +1560,7 @@
     </row>
     <row r="37" spans="4:10" ht="30" customHeight="1">
       <c r="D37" s="27" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E37" s="28"/>
       <c r="F37" s="28"/>
@@ -1595,7 +1594,7 @@
     </row>
     <row r="39" spans="4:10">
       <c r="D39" s="13" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>7</v>
@@ -1611,33 +1610,33 @@
         <v>10</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="4:10">
       <c r="D40" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E40" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H40" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="J40" s="20" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="4:10">
       <c r="D41" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>12</v>
@@ -1646,24 +1645,40 @@
         <v>255</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="19"/>
+        <v>15</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="42" spans="4:10">
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
+      <c r="D42" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="16">
+        <v>255</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="43" spans="4:10">
       <c r="D43" s="12"/>
@@ -1676,7 +1691,7 @@
     </row>
     <row r="44" spans="4:10" ht="30" customHeight="1">
       <c r="D44" s="27" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
@@ -1710,7 +1725,7 @@
     </row>
     <row r="46" spans="4:10" ht="28.5">
       <c r="D46" s="13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E46" s="13" t="s">
         <v>7</v>
@@ -1723,100 +1738,185 @@
         <v>8</v>
       </c>
       <c r="I46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" ht="28.5">
+      <c r="D47" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10">
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7"/>
+    </row>
+    <row r="49" spans="4:10">
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="4:10" ht="12.6" customHeight="1">
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="22"/>
+    </row>
+    <row r="52" spans="4:10" ht="30" customHeight="1">
+      <c r="D52" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="34"/>
+    </row>
+    <row r="53" spans="4:10" ht="15">
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10">
+      <c r="D54" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I54" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="4:10">
-      <c r="D47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="J54" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10">
+      <c r="D55" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J55" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10">
+      <c r="D56" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="9">
-        <v>50</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="4:10">
-      <c r="D48" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="4:10" ht="28.5">
-      <c r="D49" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H49" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="J49" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="4:10" ht="12.6" customHeight="1">
-      <c r="D50" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="22" t="s">
-        <v>19</v>
+      <c r="F56" s="6">
+        <v>255</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10">
+      <c r="D57" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="16">
+        <v>255</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="D52:J52"/>
     <mergeCell ref="D44:J44"/>
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D9:J9"/>
